--- a/FileShare/results/BytecodeBenchmarkRawResults.learned_only.KK.Acer.nonEclipse.Sun1.6.-server.-Xint.xlsx
+++ b/FileShare/results/BytecodeBenchmarkRawResults.learned_only.KK.Acer.nonEclipse.Sun1.6.-server.-Xint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="405" windowWidth="13110" windowHeight="8265"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="12285" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Vorhersage p0.pdf" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Vorhersage p0.pdf'!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:M38"/>
 </workbook>
 </file>
 
@@ -1386,7 +1387,7 @@
   <dimension ref="A1:XEL38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
